--- a/pred_ohlcv/54_21/2020-01-11 AMO ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-11 AMO ohlcv.xlsx
@@ -678,7 +678,7 @@
         <v>-6357318.646699997</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-76248.83629999752</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>567909.1047000026</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>5728544.988700003</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>4601268.591700003</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>2673216.550700004</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>1550361.936700004</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>2236898.690700003</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>902150.0157000035</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-2949631.012788532</v>
       </c>
       <c r="H278">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-3674124.795788532</v>
       </c>
       <c r="H279">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>-3013458.636288535</v>
       </c>
       <c r="H370">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>-6021187.067488535</v>
       </c>
       <c r="H378">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -16408,7 +16408,7 @@
         <v>-12707787.82188854</v>
       </c>
       <c r="H616">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="617" spans="1:8">
@@ -16460,7 +16460,7 @@
         <v>-14134312.17418854</v>
       </c>
       <c r="H618">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="619" spans="1:8">
@@ -16486,7 +16486,7 @@
         <v>-12791087.73818853</v>
       </c>
       <c r="H619">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="620" spans="1:8">
@@ -16512,7 +16512,7 @@
         <v>-11522145.16318854</v>
       </c>
       <c r="H620">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="621" spans="1:8">
@@ -17266,7 +17266,7 @@
         <v>-10891889.02638854</v>
       </c>
       <c r="H649">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="650" spans="1:8">
@@ -17292,7 +17292,7 @@
         <v>-10891889.02638854</v>
       </c>
       <c r="H650">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="651" spans="1:8">
@@ -17318,7 +17318,7 @@
         <v>-10891889.02638854</v>
       </c>
       <c r="H651">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="652" spans="1:8">
@@ -17344,7 +17344,7 @@
         <v>-10891889.02638854</v>
       </c>
       <c r="H652">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="653" spans="1:8">
@@ -17370,7 +17370,7 @@
         <v>-10891889.02638854</v>
       </c>
       <c r="H653">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="654" spans="1:8">
@@ -17396,7 +17396,7 @@
         <v>-10891889.02638854</v>
       </c>
       <c r="H654">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>-10891889.02638854</v>
       </c>
       <c r="H655">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -17448,7 +17448,7 @@
         <v>-10891889.02638854</v>
       </c>
       <c r="H656">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="657" spans="1:8">
@@ -17474,7 +17474,7 @@
         <v>-10891889.02638854</v>
       </c>
       <c r="H657">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -17500,7 +17500,7 @@
         <v>-9497810.015388535</v>
       </c>
       <c r="H658">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="659" spans="1:8">
@@ -17526,7 +17526,7 @@
         <v>-9497810.015388535</v>
       </c>
       <c r="H659">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="660" spans="1:8">
@@ -17552,7 +17552,7 @@
         <v>-10637616.15438854</v>
       </c>
       <c r="H660">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="661" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>-9421528.153388536</v>
       </c>
       <c r="H661">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="662" spans="1:8">
@@ -17604,7 +17604,7 @@
         <v>-9421528.153388536</v>
       </c>
       <c r="H662">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="663" spans="1:8">
@@ -17630,7 +17630,7 @@
         <v>-8531352.885388536</v>
       </c>
       <c r="H663">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="664" spans="1:8">
@@ -17656,7 +17656,7 @@
         <v>-6604286.620688536</v>
       </c>
       <c r="H664">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="665" spans="1:8">
@@ -17760,7 +17760,7 @@
         <v>-4015317.279288536</v>
       </c>
       <c r="H668">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="669" spans="1:8">
@@ -17786,7 +17786,7 @@
         <v>-7719135.079788536</v>
       </c>
       <c r="H669">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="670" spans="1:8">
@@ -17812,7 +17812,7 @@
         <v>-7719135.079788536</v>
       </c>
       <c r="H670">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="671" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-11 AMO ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-11 AMO ohlcv.xlsx
@@ -678,7 +678,7 @@
         <v>-6357318.646699997</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-76248.83629999752</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>567909.1047000026</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>5728544.988700003</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>4601268.591700003</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>2673216.550700004</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>1550361.936700004</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>2236898.690700003</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>902150.0157000035</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-2199709.942788532</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-2949631.012788532</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-3674124.795788532</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-5152961.429788532</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-3911446.141788532</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>-3013458.636288535</v>
       </c>
       <c r="H370">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>-6021187.067488535</v>
       </c>
       <c r="H378">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>-12038202.59388853</v>
       </c>
       <c r="H614">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -16434,7 +16434,7 @@
         <v>-14460320.55468854</v>
       </c>
       <c r="H617">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="618" spans="1:8">
@@ -16460,7 +16460,7 @@
         <v>-14134312.17418854</v>
       </c>
       <c r="H618">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="619" spans="1:8">
@@ -16486,7 +16486,7 @@
         <v>-12791087.73818853</v>
       </c>
       <c r="H619">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="620" spans="1:8">
@@ -16512,7 +16512,7 @@
         <v>-11522145.16318854</v>
       </c>
       <c r="H620">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="621" spans="1:8">
@@ -17396,7 +17396,7 @@
         <v>-10891889.02638854</v>
       </c>
       <c r="H654">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>-10891889.02638854</v>
       </c>
       <c r="H655">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -17448,7 +17448,7 @@
         <v>-10891889.02638854</v>
       </c>
       <c r="H656">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="657" spans="1:8">
@@ -17474,7 +17474,7 @@
         <v>-10891889.02638854</v>
       </c>
       <c r="H657">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -17500,7 +17500,7 @@
         <v>-9497810.015388535</v>
       </c>
       <c r="H658">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="659" spans="1:8">
@@ -17526,7 +17526,7 @@
         <v>-9497810.015388535</v>
       </c>
       <c r="H659">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="660" spans="1:8">
@@ -17552,7 +17552,7 @@
         <v>-10637616.15438854</v>
       </c>
       <c r="H660">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="661" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>-9421528.153388536</v>
       </c>
       <c r="H661">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="662" spans="1:8">
@@ -17604,7 +17604,7 @@
         <v>-9421528.153388536</v>
       </c>
       <c r="H662">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="663" spans="1:8">
@@ -17630,7 +17630,7 @@
         <v>-8531352.885388536</v>
       </c>
       <c r="H663">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="664" spans="1:8">
@@ -17656,7 +17656,7 @@
         <v>-6604286.620688536</v>
       </c>
       <c r="H664">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="665" spans="1:8">
@@ -17812,7 +17812,7 @@
         <v>-7719135.079788536</v>
       </c>
       <c r="H670">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="671" spans="1:8">
@@ -18098,7 +18098,7 @@
         <v>-2644137.492788535</v>
       </c>
       <c r="H681">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="682" spans="1:8">
